--- a/Test Data/ExeciseData.xlsx
+++ b/Test Data/ExeciseData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinot\eclipse-workspace\IXPerformers\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43026202-F1C6-4D33-A547-82AF86A58BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4CA5A3-BE29-4F3B-9184-A965C956AB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E164A9FD-FCF6-49CD-85FA-810B0D820987}"/>
   </bookViews>
@@ -120,25 +120,25 @@
     <t>["Back", "Chest", "Joints"]</t>
   </si>
   <si>
-    <t>Arm Circles</t>
-  </si>
-  <si>
-    <t>Jumping Jacks</t>
-  </si>
-  <si>
-    <t>Shoulder Rolls</t>
-  </si>
-  <si>
-    <t>Neck Rotations</t>
-  </si>
-  <si>
-    <t>High Knees</t>
-  </si>
-  <si>
     <t>Running</t>
   </si>
   <si>
     <t>["Calves", "Chest", "Joints"]</t>
+  </si>
+  <si>
+    <t>Dumbbell</t>
+  </si>
+  <si>
+    <t>Cat–Cow Stretch</t>
+  </si>
+  <si>
+    <t>Hip and Knee Rotations</t>
+  </si>
+  <si>
+    <t>Lat Pulldown</t>
+  </si>
+  <si>
+    <t>T-Bar Row</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -210,9 +210,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,7 +528,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +574,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -606,7 +603,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -618,7 +615,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
@@ -635,7 +632,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -664,7 +661,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -692,14 +689,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>

--- a/Test Data/ExeciseData.xlsx
+++ b/Test Data/ExeciseData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinot\eclipse-workspace\IXPerformers\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4CA5A3-BE29-4F3B-9184-A965C956AB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0306CC63-28E9-4F87-B214-6021A0019BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E164A9FD-FCF6-49CD-85FA-810B0D820987}"/>
   </bookViews>
@@ -126,19 +126,19 @@
     <t>["Calves", "Chest", "Joints"]</t>
   </si>
   <si>
-    <t>Dumbbell</t>
-  </si>
-  <si>
-    <t>Cat–Cow Stretch</t>
-  </si>
-  <si>
-    <t>Hip and Knee Rotations</t>
-  </si>
-  <si>
     <t>Lat Pulldown</t>
   </si>
   <si>
     <t>T-Bar Row</t>
+  </si>
+  <si>
+    <t>Lat Pushdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-Bar </t>
+  </si>
+  <si>
+    <t>Bar</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
